--- a/Stocks/L&TFH.xlsx
+++ b/Stocks/L&TFH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>132.03333333333333</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>172.79503170517773</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>163.19932837001929</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>82.488135070793405</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>2.25</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>4.1999999999999886</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.53571428571428714</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>155.88757421370508</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>7.8284908947131555</v>
       </c>
       <c r="Y67">
         <v>5.7900665914948366</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>175.9</v>
+      </c>
+      <c r="D83">
+        <v>189.4</v>
+      </c>
+      <c r="E83">
+        <v>175.6</v>
+      </c>
+      <c r="F83">
+        <v>188.6</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>184.53333333333333</v>
+      </c>
+      <c r="H83">
+        <v>178.87078290351928</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>178.34720345847813</v>
+      </c>
+      <c r="K83">
+        <v>171.26461288006135</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>81.064821340443999</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>13.800000000000011</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.94202898550724556</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>174.48221830614142</v>
+      </c>
+      <c r="W83">
+        <v>168.84332420742479</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>5.6388940987166336</v>
+      </c>
+      <c r="Y83">
+        <v>5.5431664158337739</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD83">
+        <f t="shared" si="35"/>
+        <v>177.15</v>
+      </c>
+      <c r="AE83">
+        <f t="shared" si="36"/>
+        <v>180.85000000000002</v>
+      </c>
+      <c r="AF83">
+        <f t="shared" si="37"/>
+        <v>182.5</v>
+      </c>
+      <c r="AG83">
+        <f t="shared" si="38"/>
+        <v>184.15</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>188.45</v>
+      </c>
+      <c r="D84">
+        <v>195.45</v>
+      </c>
+      <c r="E84">
+        <v>186.45</v>
+      </c>
+      <c r="F84">
+        <v>189.4</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>190.43333333333331</v>
+      </c>
+      <c r="H84">
+        <v>184.65205811842628</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>182.14782491214964</v>
+      </c>
+      <c r="K84">
+        <v>174.63914335115882</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>81.769121276619131</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>2.9500000000000171</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.32777777777777967</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>176.77726164365814</v>
+      </c>
+      <c r="W84">
+        <v>170.36604093280073</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>6.4112207108574069</v>
+      </c>
+      <c r="Y84">
+        <v>5.7167772748385008</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>192</v>
+      </c>
+      <c r="D85">
+        <v>198.9</v>
+      </c>
+      <c r="E85">
+        <v>192</v>
+      </c>
+      <c r="F85">
+        <v>196.5</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>195.79999999999998</v>
+      </c>
+      <c r="H85">
+        <v>190.22602905921315</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>185.87053048722751</v>
+      </c>
+      <c r="K85">
+        <v>178.49711149534576</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>87.094421469346599</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>6.9000000000000057</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.65217391304347772</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>179.81152908309534</v>
+      </c>
+      <c r="W85">
+        <v>172.30188975259327</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>7.5096393305020683</v>
+      </c>
+      <c r="Y85">
+        <v>6.0753496859712142</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>198</v>
+      </c>
+      <c r="D86">
+        <v>202.85</v>
+      </c>
+      <c r="E86">
+        <v>196.2</v>
+      </c>
+      <c r="F86">
+        <v>199.9</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>199.64999999999998</v>
+      </c>
+      <c r="H86">
+        <v>194.93801452960656</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>189.64374593451029</v>
+      </c>
+      <c r="K86">
+        <v>182.43108671860224</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>89.015131995562427</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>3.7000000000000171</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>6.6500000000000057</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.5563909774436111</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>182.90206307031144</v>
+      </c>
+      <c r="W86">
+        <v>174.34619421536414</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>8.5558688549473061</v>
+      </c>
+      <c r="Y86">
+        <v>6.5714535197664325</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>200.5</v>
+      </c>
+      <c r="D87">
+        <v>202.9</v>
+      </c>
+      <c r="E87">
+        <v>198.05</v>
+      </c>
+      <c r="F87">
+        <v>198.75</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>199.9</v>
+      </c>
+      <c r="H87">
+        <v>197.41900726480327</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>192.58958017128577</v>
+      </c>
+      <c r="K87">
+        <v>185.90195633669063</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>83.745562014567057</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>0.69999999999998863</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>4.8499999999999943</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.14432989690721432</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>185.34020721334045</v>
+      </c>
+      <c r="W87">
+        <v>176.15388353274457</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>9.1863236805958763</v>
+      </c>
+      <c r="Y87">
+        <v>7.0944275519323217</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>198.1</v>
+      </c>
+      <c r="D88">
+        <v>199.7</v>
+      </c>
+      <c r="E88">
+        <v>192.25</v>
+      </c>
+      <c r="F88">
+        <v>195.6</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>195.85</v>
+      </c>
+      <c r="H88">
+        <v>196.63450363240162</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>194.16967346655559</v>
+      </c>
+      <c r="K88">
+        <v>187.31263270631493</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>69.631829871420052</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>3.3499999999999943</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>7.4499999999999886</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.44966442953020125</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>186.91863687282654</v>
+      </c>
+      <c r="W88">
+        <v>177.59433660439313</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>9.3243002684334044</v>
+      </c>
+      <c r="Y88">
+        <v>7.5404020952325386</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>196</v>
+      </c>
+      <c r="D89">
+        <v>206.2</v>
+      </c>
+      <c r="E89">
+        <v>195.75</v>
+      </c>
+      <c r="F89">
+        <v>206.2</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>202.71666666666667</v>
+      </c>
+      <c r="H89">
+        <v>199.67558514953413</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>196.84307936287658</v>
+      </c>
+      <c r="K89">
+        <v>189.18760321602272</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>82.229411893670928</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>10.449999999999989</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>10.449999999999989</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V89">
+        <v>189.88500043085321</v>
+      </c>
+      <c r="W89">
+        <v>179.71327463369735</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>10.171725797155858</v>
+      </c>
+      <c r="Y89">
+        <v>8.0666668356172018</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD89">
+        <f t="shared" si="35"/>
+        <v>196.95000000000002</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="36"/>
+        <v>199.75</v>
+      </c>
+      <c r="AF89">
+        <f t="shared" si="37"/>
+        <v>200.95000000000002</v>
+      </c>
+      <c r="AG89">
+        <f t="shared" si="38"/>
+        <v>202.20000000000002</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>205</v>
+      </c>
+      <c r="D90">
+        <v>208.35</v>
+      </c>
+      <c r="E90">
+        <v>203.5</v>
+      </c>
+      <c r="F90">
+        <v>205.6</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>205.81666666666669</v>
+      </c>
+      <c r="H90">
+        <v>202.7461259081004</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>199.40017283779289</v>
+      </c>
+      <c r="K90">
+        <v>192.36813583468435</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>79.884710011381202</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>2.0999999999999943</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>4.8499999999999943</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.43298969072164883</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>192.30269267226041</v>
+      </c>
+      <c r="W90">
+        <v>181.63080984601606</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>10.671882826244342</v>
+      </c>
+      <c r="Y90">
+        <v>8.5877100337426295</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>207.35</v>
+      </c>
+      <c r="D91">
+        <v>208.85</v>
+      </c>
+      <c r="E91">
+        <v>205.75</v>
+      </c>
+      <c r="F91">
+        <v>206.3</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>206.9666666666667</v>
+      </c>
+      <c r="H91">
+        <v>204.85639628738355</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>201.50013442939448</v>
+      </c>
+      <c r="K91">
+        <v>195.34188342697672</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>80.687772995382787</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0.55000000000001137</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>3.0999999999999943</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.17741935483871368</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>194.45612456883572</v>
+      </c>
+      <c r="W91">
+        <v>183.45815726482968</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>10.997967304006039</v>
+      </c>
+      <c r="Y91">
+        <v>9.0697614877953114</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>207.5</v>
+      </c>
+      <c r="D92">
+        <v>207.8</v>
+      </c>
+      <c r="E92">
+        <v>201.5</v>
+      </c>
+      <c r="F92">
+        <v>202.6</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>203.96666666666667</v>
+      </c>
+      <c r="H92">
+        <v>204.41153147702511</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>202.90010455619571</v>
+      </c>
+      <c r="K92">
+        <v>196.71035377653746</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>63.846524968908689</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>6.3000000000000114</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.17460317460317337</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>195.70902848132252</v>
+      </c>
+      <c r="W92">
+        <v>184.87607154150896</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>10.832956939813556</v>
+      </c>
+      <c r="Y92">
+        <v>9.4224005781989604</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>204.55</v>
+      </c>
+      <c r="D93">
+        <v>205.7</v>
+      </c>
+      <c r="E93">
+        <v>201.65</v>
+      </c>
+      <c r="F93">
+        <v>203.7</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>203.68333333333331</v>
+      </c>
+      <c r="H93">
+        <v>204.04743240517922</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>203.52230354370778</v>
+      </c>
+      <c r="K93">
+        <v>197.80805293730691</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>66.448924451569454</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>2.0499999999999829</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>4.0499999999999829</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.50617283950617076</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>196.93840871496522</v>
+      </c>
+      <c r="W93">
+        <v>186.27043661250829</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>10.667972102456929</v>
+      </c>
+      <c r="Y93">
+        <v>9.6715148830505537</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>204.8</v>
+      </c>
+      <c r="D94">
+        <v>205.25</v>
+      </c>
+      <c r="E94">
+        <v>201.25</v>
+      </c>
+      <c r="F94">
+        <v>202.95</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>203.15</v>
+      </c>
+      <c r="H94">
+        <v>203.59871620258963</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>203.9062360895505</v>
+      </c>
+      <c r="K94">
+        <v>198.57293006234983</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>62.608028554554295</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.42499999999999716</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>197.86326891266287</v>
+      </c>
+      <c r="W94">
+        <v>187.50595982639658</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>10.357309086266298</v>
+      </c>
+      <c r="Y94">
+        <v>9.8086737236937029</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>203.1</v>
+      </c>
+      <c r="D95">
+        <v>206.4</v>
+      </c>
+      <c r="E95">
+        <v>201.6</v>
+      </c>
+      <c r="F95">
+        <v>202.8</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>203.6</v>
+      </c>
+      <c r="H95">
+        <v>203.5993581012948</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>204.46040584742818</v>
+      </c>
+      <c r="K95">
+        <v>199.24561227071652</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>61.716195155041866</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>1.2000000000000171</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>4.8000000000000114</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.25000000000000294</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>198.62276600302243</v>
+      </c>
+      <c r="W95">
+        <v>188.63885169110793</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>9.9839143119145035</v>
+      </c>
+      <c r="Y95">
+        <v>9.8437218413378638</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>203</v>
+      </c>
+      <c r="D96">
+        <v>204.65</v>
+      </c>
+      <c r="E96">
+        <v>199.55</v>
+      </c>
+      <c r="F96">
+        <v>201.65</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>201.95000000000002</v>
+      </c>
+      <c r="H96">
+        <v>202.77467905064742</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>204.50253788133304</v>
+      </c>
+      <c r="K96">
+        <v>199.31325398833508</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>54.303169889756553</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>2.0999999999999943</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>5.0999999999999943</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.41176470588235231</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>199.08849431024976</v>
+      </c>
+      <c r="W96">
+        <v>189.60264045472957</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>9.4858538555201903</v>
+      </c>
+      <c r="Y96">
+        <v>9.7721482441743284</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>204</v>
+      </c>
+      <c r="D97">
+        <v>209.25</v>
+      </c>
+      <c r="E97">
+        <v>200.3</v>
+      </c>
+      <c r="F97">
+        <v>207.15</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>205.56666666666669</v>
+      </c>
+      <c r="H97">
+        <v>204.17067285865704</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>205.55752946325904</v>
+      </c>
+      <c r="K97">
+        <v>199.53253087981616</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>73.402343379159134</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>6.8499999999999943</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>8.9499999999999886</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.76536312849162047</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>200.32872595482672</v>
+      </c>
+      <c r="W97">
+        <v>190.90244486549034</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>9.4262810893363849</v>
+      </c>
+      <c r="Y97">
+        <v>9.7029748132067404</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>209.1</v>
+      </c>
+      <c r="D98">
+        <v>211.95</v>
+      </c>
+      <c r="E98">
+        <v>208.3</v>
+      </c>
+      <c r="F98">
+        <v>210.2</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>210.15</v>
+      </c>
+      <c r="H98">
+        <v>207.16033642932854</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>206.97807847142369</v>
+      </c>
+      <c r="K98">
+        <v>201.48085735096814</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>79.37715523631465</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>1.8999999999999773</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>3.6499999999999773</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.52054794520547643</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>201.84738350023798</v>
+      </c>
+      <c r="W98">
+        <v>192.33189339397254</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>9.515490106265446</v>
+      </c>
+      <c r="Y98">
+        <v>9.6654778718184815</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>209.9</v>
+      </c>
+      <c r="D99">
+        <v>211.8</v>
+      </c>
+      <c r="E99">
+        <v>208.45</v>
+      </c>
+      <c r="F99">
+        <v>209.05</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>209.76666666666665</v>
+      </c>
+      <c r="H99">
+        <v>208.46350154799759</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>208.0496165888851</v>
+      </c>
+      <c r="K99">
+        <v>203.02955571741967</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>71.777764082459413</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>0.60000000000002274</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>3.3500000000000227</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.17910447761194587</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>202.95547834635522</v>
+      </c>
+      <c r="W99">
+        <v>193.57027166108568</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>9.3852066852695373</v>
+      </c>
+      <c r="Y99">
+        <v>9.6094236345086923</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>209.25</v>
+      </c>
+      <c r="D100">
+        <v>209.95</v>
+      </c>
+      <c r="E100">
+        <v>207.05</v>
+      </c>
+      <c r="F100">
+        <v>208</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="H100">
+        <v>208.39841744066547</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>208.47192401357731</v>
+      </c>
+      <c r="K100">
+        <v>203.92298778021529</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>64.707445318131846</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0.94999999999998863</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>2.8999999999999773</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.32758620689655038</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>203.7315586007621</v>
+      </c>
+      <c r="W100">
+        <v>194.63914042693119</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>9.0924181738309073</v>
+      </c>
+      <c r="Y100">
+        <v>9.5060225423731346</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>207.55</v>
+      </c>
+      <c r="D101">
+        <v>212.9</v>
+      </c>
+      <c r="E101">
+        <v>204.05</v>
+      </c>
+      <c r="F101">
+        <v>211.15</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>209.36666666666667</v>
+      </c>
+      <c r="H101">
+        <v>208.88254205366607</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>209.45594089944902</v>
+      </c>
+      <c r="K101">
+        <v>203.95121271794522</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>74.227459048515982</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>7.0999999999999943</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>8.8499999999999943</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.80225988700564954</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V101">
+        <v>204.87285727756793</v>
+      </c>
+      <c r="W101">
+        <v>195.86216706197334</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>9.0106902155945932</v>
+      </c>
+      <c r="Y101">
+        <v>9.4069560770174263</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>209.5</v>
+      </c>
+      <c r="D102">
+        <v>210.35</v>
+      </c>
+      <c r="E102">
+        <v>201.5</v>
+      </c>
+      <c r="F102">
+        <v>202.3</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>204.7166666666667</v>
+      </c>
+      <c r="H102">
+        <v>206.79960436016637</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>209.65462069957147</v>
+      </c>
+      <c r="K102">
+        <v>203.40649878062408</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>38.117729650245927</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>8.8499999999999943</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>9.0395480225990046E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>204.47703308101902</v>
+      </c>
+      <c r="W102">
+        <v>196.33904357590123</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>8.1379895051177868</v>
+      </c>
+      <c r="Y102">
+        <v>9.1531627626374981</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>202.35</v>
+      </c>
+      <c r="D103">
+        <v>202.35</v>
+      </c>
+      <c r="E103">
+        <v>189</v>
+      </c>
+      <c r="F103">
+        <v>193.5</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>194.95000000000002</v>
+      </c>
+      <c r="H103">
+        <v>200.87480218008318</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>208.03137165522224</v>
+      </c>
+      <c r="K103">
+        <v>200.20505460715205</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>23.754441394728449</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>13.349999999999994</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.33707865168539342</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>202.78825876086225</v>
+      </c>
+      <c r="W103">
+        <v>196.12874405176041</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>6.6595147091018418</v>
+      </c>
+      <c r="Y103">
+        <v>8.6544331519303661</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>191</v>
+      </c>
+      <c r="D104">
+        <v>198.2</v>
+      </c>
+      <c r="E104">
+        <v>189.8</v>
+      </c>
+      <c r="F104">
+        <v>196.35</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>194.78333333333333</v>
+      </c>
+      <c r="H104">
+        <v>197.82906775670824</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>205.84662239850618</v>
+      </c>
+      <c r="K104">
+        <v>197.89282025000716</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>33.845937783156579</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>6.5499999999999829</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>8.3999999999999773</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.77976190476190488</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>201.79775741303729</v>
+      </c>
+      <c r="W104">
+        <v>196.14513338125963</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>5.6526240317776626</v>
+      </c>
+      <c r="Y104">
+        <v>8.0540713278998251</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>197.7</v>
+      </c>
+      <c r="D105">
+        <v>198.35</v>
+      </c>
+      <c r="E105">
+        <v>187</v>
+      </c>
+      <c r="F105">
+        <v>187.7</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>191.01666666666665</v>
+      </c>
+      <c r="H105">
+        <v>194.42286721168745</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>204.18070630994924</v>
+      </c>
+      <c r="K105">
+        <v>195.47219352778336</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>22.531857173663344</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>0.69999999999998863</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>11.349999999999994</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>6.1674008810571716E-2</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>199.62887165718539</v>
+      </c>
+      <c r="W105">
+        <v>195.51956794561076</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>4.1093037115746256</v>
+      </c>
+      <c r="Y105">
+        <v>7.2651178046347855</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>197.05</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>194</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>192.70000000000002</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>191.35000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>188</v>
+      </c>
+      <c r="D106">
+        <v>191.5</v>
+      </c>
+      <c r="E106">
+        <v>184.75</v>
+      </c>
+      <c r="F106">
+        <v>191.5</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>189.25</v>
+      </c>
+      <c r="H106">
+        <v>191.83643360584372</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>201.36277157440497</v>
+      </c>
+      <c r="K106">
+        <v>193.08948385494261</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>34.54678584676337</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>6.75</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>6.75</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>198.37827601761839</v>
+      </c>
+      <c r="W106">
+        <v>195.22182217186182</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>3.1564538457565732</v>
+      </c>
+      <c r="Y106">
+        <v>6.4433850128591432</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>192.25</v>
+      </c>
+      <c r="D107">
+        <v>196.95</v>
+      </c>
+      <c r="E107">
+        <v>192</v>
+      </c>
+      <c r="F107">
+        <v>195.6</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>194.85</v>
+      </c>
+      <c r="H107">
+        <v>193.34321680292186</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>200.38215566898165</v>
+      </c>
+      <c r="K107">
+        <v>192.84737633162203</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>45.869496132621855</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>4.9499999999999886</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.72727272727272785</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>197.9508489379848</v>
+      </c>
+      <c r="W107">
+        <v>195.24983534431649</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>2.7010135936683071</v>
+      </c>
+      <c r="Y107">
+        <v>5.6949107290209762</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
